--- a/results/013-ms1-pathways-Autophagy.xlsx
+++ b/results/013-ms1-pathways-Autophagy.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -53,9 +53,6 @@
     <t xml:space="preserve">Guy11-6</t>
   </si>
   <si>
-    <t xml:space="preserve">MGG_08061T0 [621-641]|[R].EASPSLQREESDNEIPPEFLR.[E]|1xPhospho [S]|S</t>
-  </si>
-  <si>
     <t xml:space="preserve">MGG_08061T0 [621-641]|[R].EASPSLQREESDNEIPPEFLR.[E]|1xPhospho [S11(86.2)]|S631</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
     <t xml:space="preserve">MGG_06393T0 [473-488]|[R].ESSSPTSAALANDSAR.[A]|1xPhospho [S/T]|S/T</t>
   </si>
   <si>
-    <t xml:space="preserve">MGG_07667T0 [198-222]|[K].HLLAAPGLPSPSNSVFSRPMADLVR.[T]|1xOxidation [M20];2xPhospho [S10(81.8); S]|M20;S10; S</t>
-  </si>
-  <si>
     <t xml:space="preserve">MGG_07667T0 [198-222]|[K].HLLAAPGLPSPSNSVFSRPMADLVR.[T]|1xOxidation [M20];2xPhospho [S10(96.5); S12(80.1)]|S207; S209</t>
   </si>
   <si>
@@ -98,9 +92,6 @@
     <t xml:space="preserve">MGG_03694T0 [115-143]|[R].SSGPASPNASKGSAATPAADDDSANETNR.[M]|1xPhospho [S/T]|S/T</t>
   </si>
   <si>
-    <t xml:space="preserve">MGG_08061T0 [554-568]|[R].STTDPKAAEAEVSSK.[V]|1xPhospho [S/T]|S/T</t>
-  </si>
-  <si>
     <t xml:space="preserve">MGG_08061T0 [554-568]|[R].STTDPKAAEAEVSSK.[V]|1xPhospho [T3(89.7)]|T556</t>
   </si>
   <si>
@@ -117,9 +108,6 @@
   </si>
   <si>
     <t xml:space="preserve">MGG_08061T0 [551-568]|[R].LARSTTDPKAAEAEVSSK.[V]|1xPhospho [S4(84.6)]|S554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MGG_08061T0 [551-568]|[R].LARSTTDPKAAEAEVSSK.[V]|1xPhospho [S/T]|S/T</t>
   </si>
   <si>
     <t xml:space="preserve">MGG_06393T0 [182-207]|[K].LARPILTASQDSLVPVAGLASLPMLK.[L]|1xOxidation [M24];1xPhospho [S12(80)]|S193</t>
@@ -551,28 +539,28 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.332444674358094</v>
+        <v>0.834772700648382</v>
       </c>
       <c r="C2" t="n">
-        <v>0.325555886190299</v>
+        <v>0.817474868116914</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.910897306918851</v>
       </c>
       <c r="E2" t="n">
-        <v>0.24615584761904</v>
+        <v>0.618100386460094</v>
       </c>
       <c r="F2" t="n">
-        <v>0.504937088787201</v>
+        <v>0.935217922862061</v>
       </c>
       <c r="G2" t="n">
-        <v>0.308304121382249</v>
+        <v>0.774155472709022</v>
       </c>
       <c r="H2" t="n">
-        <v>0.412987469142539</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.817470462756153</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -592,28 +580,28 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.834772700648382</v>
+        <v>0.332444674358094</v>
       </c>
       <c r="C3" t="n">
-        <v>0.817474868116914</v>
+        <v>0.325555886190299</v>
       </c>
       <c r="D3" t="n">
-        <v>0.910897306918851</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.618100386460094</v>
+        <v>0.24615584761904</v>
       </c>
       <c r="F3" t="n">
-        <v>0.935217922862061</v>
+        <v>0.504937088787201</v>
       </c>
       <c r="G3" t="n">
-        <v>0.774155472709022</v>
+        <v>0.308304121382249</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.412987469142539</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0.817470462756153</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -633,28 +621,28 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.332444674358094</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.325555886190299</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.224035988318532</v>
       </c>
       <c r="E4" t="n">
-        <v>0.24615584761904</v>
+        <v>0.350287530746119</v>
       </c>
       <c r="F4" t="n">
-        <v>0.504937088787201</v>
+        <v>0.269690315700411</v>
       </c>
       <c r="G4" t="n">
-        <v>0.308304121382249</v>
+        <v>0.18880062855284</v>
       </c>
       <c r="H4" t="n">
-        <v>0.412987469142539</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.817470462756153</v>
+        <v>0.599423864084633</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -666,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.307688870700282</v>
       </c>
     </row>
     <row r="5">
@@ -674,31 +662,31 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.582592952412231</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.552332757098888</v>
       </c>
       <c r="D5" t="n">
-        <v>0.224035988318532</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.350287530746119</v>
+        <v>0.674081764226675</v>
       </c>
       <c r="F5" t="n">
-        <v>0.269690315700411</v>
+        <v>0.360599215725138</v>
       </c>
       <c r="G5" t="n">
-        <v>0.18880062855284</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.395064920412862</v>
       </c>
       <c r="I5" t="n">
-        <v>0.599423864084633</v>
+        <v>0.694743937609214</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.331346364736645</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -707,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.307688870700282</v>
+        <v>0.338927711411703</v>
       </c>
     </row>
     <row r="6">
@@ -756,40 +744,40 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.582592952412231</v>
+        <v>0.493447983785182</v>
       </c>
       <c r="C7" t="n">
-        <v>0.552332757098888</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.298705231079545</v>
       </c>
       <c r="E7" t="n">
-        <v>0.674081764226675</v>
+        <v>0.232220465427562</v>
       </c>
       <c r="F7" t="n">
-        <v>0.360599215725138</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0.314788096299406</v>
       </c>
       <c r="H7" t="n">
-        <v>0.395064920412862</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.694743937609214</v>
+        <v>0.371030463925706</v>
       </c>
       <c r="J7" t="n">
-        <v>0.331346364736645</v>
+        <v>0.231347806707408</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>0.277640147673446</v>
       </c>
       <c r="M7" t="n">
-        <v>0.338927711411703</v>
+        <v>0.236180097022531</v>
       </c>
     </row>
     <row r="8">
@@ -797,40 +785,40 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.582592952412231</v>
+        <v>0.493447983785182</v>
       </c>
       <c r="C8" t="n">
-        <v>0.552332757098888</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.298705231079545</v>
       </c>
       <c r="E8" t="n">
-        <v>0.674081764226675</v>
+        <v>0.232220465427562</v>
       </c>
       <c r="F8" t="n">
-        <v>0.360599215725138</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0.314788096299406</v>
       </c>
       <c r="H8" t="n">
-        <v>0.395064920412862</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.694743937609214</v>
+        <v>0.371030463925706</v>
       </c>
       <c r="J8" t="n">
-        <v>0.331346364736645</v>
+        <v>0.231347806707408</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>0.277640147673446</v>
       </c>
       <c r="M8" t="n">
-        <v>0.338927711411703</v>
+        <v>0.236180097022531</v>
       </c>
     </row>
     <row r="9">
@@ -838,40 +826,40 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>0.493447983785182</v>
+        <v>0.995262128411615</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.298705231079545</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.232220465427562</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0.314788096299406</v>
+        <v>0.50355312340431</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.789817521827759</v>
       </c>
       <c r="I9" t="n">
-        <v>0.371030463925706</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.231347806707408</v>
+        <v>0.443726691566298</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.479520585719451</v>
       </c>
       <c r="L9" t="n">
-        <v>0.277640147673446</v>
+        <v>0.61537080506265</v>
       </c>
       <c r="M9" t="n">
-        <v>0.236180097022531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -879,40 +867,40 @@
         <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>0.493447983785182</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.298705231079545</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.232220465427562</v>
+        <v>0.724390390219152</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.314788096299406</v>
+        <v>0.846526494030476</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.514439674734754</v>
       </c>
       <c r="I10" t="n">
-        <v>0.371030463925706</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0.231347806707408</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.277640147673446</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.236180097022531</v>
+        <v>0.965031842744076</v>
       </c>
     </row>
     <row r="11">
@@ -920,40 +908,40 @@
         <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>0.995262128411615</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.732426406026113</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.772211916678807</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0.653545793349706</v>
       </c>
       <c r="G11" t="n">
-        <v>0.50355312340431</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.789817521827759</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.894218727815201</v>
       </c>
       <c r="J11" t="n">
-        <v>0.443726691566298</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.479520585719451</v>
+        <v>0.517029177064102</v>
       </c>
       <c r="L11" t="n">
-        <v>0.61537080506265</v>
+        <v>0.470757487401835</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.788312906017959</v>
       </c>
     </row>
     <row r="12">
@@ -970,31 +958,31 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.724390390219152</v>
+        <v>0.236164455506057</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.846526494030476</v>
+        <v>0.940473222807519</v>
       </c>
       <c r="H12" t="n">
-        <v>0.514439674734754</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0.797701902087838</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.316864561285521</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.808629303404372</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.235981438544961</v>
       </c>
       <c r="M12" t="n">
-        <v>0.965031842744076</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1008,13 +996,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.732426406026113</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.772211916678807</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.653545793349706</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1023,19 +1011,19 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.894218727815201</v>
+        <v>0.990837004532906</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>0.540060668433079</v>
       </c>
       <c r="K13" t="n">
-        <v>0.517029177064102</v>
+        <v>0.643880245445732</v>
       </c>
       <c r="L13" t="n">
-        <v>0.470757487401835</v>
+        <v>0.402204313796877</v>
       </c>
       <c r="M13" t="n">
-        <v>0.788312906017959</v>
+        <v>0.921672696768373</v>
       </c>
     </row>
     <row r="14">
@@ -1052,31 +1040,31 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.236164455506057</v>
+        <v>0.695170153364336</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.251957844228054</v>
       </c>
       <c r="G14" t="n">
-        <v>0.940473222807519</v>
+        <v>0.240857612681347</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.797701902087838</v>
+        <v>0.520089234083863</v>
       </c>
       <c r="J14" t="n">
-        <v>0.316864561285521</v>
+        <v>0.482413349552875</v>
       </c>
       <c r="K14" t="n">
-        <v>0.808629303404372</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>0.235981438544961</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1090,34 +1078,34 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>0.627625057265919</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.801176953246585</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.853097668010878</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0.980007575506988</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0.990837004532906</v>
+        <v>0.808320398206346</v>
       </c>
       <c r="J15" t="n">
-        <v>0.540060668433079</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.643880245445732</v>
+        <v>0.311632785256953</v>
       </c>
       <c r="L15" t="n">
-        <v>0.402204313796877</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.921672696768373</v>
+        <v>0.366010920575925</v>
       </c>
     </row>
     <row r="16">
@@ -1131,34 +1119,34 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.627625057265919</v>
       </c>
       <c r="E16" t="n">
-        <v>0.695170153364336</v>
+        <v>0.801176953246585</v>
       </c>
       <c r="F16" t="n">
-        <v>0.251957844228054</v>
+        <v>0.853097668010878</v>
       </c>
       <c r="G16" t="n">
-        <v>0.240857612681347</v>
+        <v>0.980007575506988</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0.520089234083863</v>
+        <v>0.808320398206346</v>
       </c>
       <c r="J16" t="n">
-        <v>0.482413349552875</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0.311632785256953</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>0.366010920575925</v>
       </c>
     </row>
     <row r="17">
@@ -1172,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.781313283825932</v>
+        <v>0.627625057265919</v>
       </c>
       <c r="E17" t="n">
         <v>0.801176953246585</v>
@@ -1187,16 +1175,16 @@
         <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0.942517193650473</v>
+        <v>0.808320398206346</v>
       </c>
       <c r="J17" t="n">
-        <v>0.344859943492008</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.715300254924113</v>
+        <v>0.311632785256953</v>
       </c>
       <c r="L17" t="n">
-        <v>0.20086158949905</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0.366010920575925</v>
@@ -1213,34 +1201,34 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.627625057265919</v>
+        <v>0.510528754045634</v>
       </c>
       <c r="E18" t="n">
-        <v>0.801176953246585</v>
+        <v>0.527478148620713</v>
       </c>
       <c r="F18" t="n">
-        <v>0.853097668010878</v>
+        <v>0.649074104876044</v>
       </c>
       <c r="G18" t="n">
-        <v>0.980007575506988</v>
+        <v>0.571717475195875</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0.954035585178447</v>
       </c>
       <c r="I18" t="n">
-        <v>0.808320398206346</v>
+        <v>0.453585374974577</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.561529673817215</v>
       </c>
       <c r="K18" t="n">
-        <v>0.311632785256953</v>
+        <v>0.92550749195371</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>0.481454639513817</v>
       </c>
       <c r="M18" t="n">
-        <v>0.366010920575925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1254,34 +1242,34 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.627625057265919</v>
+        <v>0.909175022889026</v>
       </c>
       <c r="E19" t="n">
-        <v>0.801176953246585</v>
+        <v>0.378768147080562</v>
       </c>
       <c r="F19" t="n">
-        <v>0.853097668010878</v>
+        <v>0.589956263365738</v>
       </c>
       <c r="G19" t="n">
-        <v>0.980007575506988</v>
+        <v>0.782598650781945</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0.667671233593342</v>
       </c>
       <c r="I19" t="n">
-        <v>0.808320398206346</v>
+        <v>0.322232124969525</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>0.311632785256953</v>
+        <v>0.78039823649831</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>0.857398392218426</v>
       </c>
       <c r="M19" t="n">
-        <v>0.366010920575925</v>
+        <v>0.828522960766906</v>
       </c>
     </row>
     <row r="20">
@@ -1295,34 +1283,34 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.627625057265919</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>0.801176953246585</v>
+        <v>0.626819765874049</v>
       </c>
       <c r="F20" t="n">
-        <v>0.853097668010878</v>
+        <v>0.53587965516195</v>
       </c>
       <c r="G20" t="n">
-        <v>0.980007575506988</v>
+        <v>0.377719818629742</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0.487850145764356</v>
       </c>
       <c r="I20" t="n">
-        <v>0.808320398206346</v>
+        <v>0.488543875019414</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.552141410932478</v>
       </c>
       <c r="K20" t="n">
-        <v>0.311632785256953</v>
+        <v>0.311454765209078</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>0.484860440045432</v>
       </c>
       <c r="M20" t="n">
-        <v>0.366010920575925</v>
+        <v>0.399792979165081</v>
       </c>
     </row>
     <row r="21">
@@ -1336,31 +1324,31 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.510528754045634</v>
+        <v>0.16905644388029</v>
       </c>
       <c r="E21" t="n">
-        <v>0.527478148620713</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.649074104876044</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.571717475195875</v>
+        <v>0.174643871448668</v>
       </c>
       <c r="H21" t="n">
-        <v>0.954035585178447</v>
+        <v>0.290175484058425</v>
       </c>
       <c r="I21" t="n">
-        <v>0.453585374974577</v>
+        <v>0.262151221821495</v>
       </c>
       <c r="J21" t="n">
-        <v>0.561529673817215</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.92550749195371</v>
+        <v>0.379576149697795</v>
       </c>
       <c r="L21" t="n">
-        <v>0.481454639513817</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
@@ -1377,34 +1365,34 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.909175022889026</v>
+        <v>0.16905644388029</v>
       </c>
       <c r="E22" t="n">
-        <v>0.378768147080562</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.589956263365738</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.782598650781945</v>
+        <v>0.174643871448668</v>
       </c>
       <c r="H22" t="n">
-        <v>0.667671233593342</v>
+        <v>0.290175484058425</v>
       </c>
       <c r="I22" t="n">
-        <v>0.322232124969525</v>
+        <v>0.262151221821495</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.78039823649831</v>
+        <v>0.379576149697795</v>
       </c>
       <c r="L22" t="n">
-        <v>0.857398392218426</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.828522960766906</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1418,34 +1406,34 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0.16905644388029</v>
       </c>
       <c r="E23" t="n">
-        <v>0.626819765874049</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.53587965516195</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.377719818629742</v>
+        <v>0.174643871448668</v>
       </c>
       <c r="H23" t="n">
-        <v>0.487850145764356</v>
+        <v>0.290175484058425</v>
       </c>
       <c r="I23" t="n">
-        <v>0.488543875019414</v>
+        <v>0.262151221821495</v>
       </c>
       <c r="J23" t="n">
-        <v>0.552141410932478</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.311454765209078</v>
+        <v>0.379576149697795</v>
       </c>
       <c r="L23" t="n">
-        <v>0.484860440045432</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.399792979165081</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1500,34 +1488,34 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.16905644388029</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.261812313560213</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.174643871448668</v>
+        <v>0.406161702706953</v>
       </c>
       <c r="H25" t="n">
-        <v>0.290175484058425</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.262151221821495</v>
+        <v>0.455092770295276</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.0427849059224247</v>
       </c>
       <c r="K25" t="n">
-        <v>0.379576149697795</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>0.402096768368373</v>
       </c>
     </row>
     <row r="26">
@@ -1541,34 +1529,34 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.16905644388029</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.291967006398709</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.174643871448668</v>
+        <v>0.514306376618109</v>
       </c>
       <c r="H26" t="n">
-        <v>0.290175484058425</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.262151221821495</v>
+        <v>0.547888826390883</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.379576149697795</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>0.442187190932725</v>
       </c>
     </row>
     <row r="27">
@@ -1582,34 +1570,34 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.16905644388029</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>0.249889819654876</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.174643871448668</v>
+        <v>0.429054919074775</v>
       </c>
       <c r="H27" t="n">
-        <v>0.290175484058425</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.262151221821495</v>
+        <v>0.43436860837017</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.040836553023495</v>
       </c>
       <c r="K27" t="n">
-        <v>0.379576149697795</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>0.38378595553823</v>
       </c>
     </row>
     <row r="28">
@@ -1626,31 +1614,31 @@
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>0.626819765874049</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.53587965516195</v>
+        <v>0.347197753767597</v>
       </c>
       <c r="G28" t="n">
-        <v>0.377719818629742</v>
+        <v>0.220023096104905</v>
       </c>
       <c r="H28" t="n">
-        <v>0.487850145764356</v>
+        <v>0.521214429014805</v>
       </c>
       <c r="I28" t="n">
-        <v>0.488543875019414</v>
+        <v>0.315345888821307</v>
       </c>
       <c r="J28" t="n">
-        <v>0.552141410932478</v>
+        <v>0.38449447631652</v>
       </c>
       <c r="K28" t="n">
-        <v>0.311454765209078</v>
+        <v>0.174493447041399</v>
       </c>
       <c r="L28" t="n">
-        <v>0.484860440045432</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.399792979165081</v>
+        <v>0.595125397349134</v>
       </c>
     </row>
     <row r="29">
@@ -1661,37 +1649,37 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>0.262264261549895</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>0.28169413117619</v>
       </c>
       <c r="E29" t="n">
-        <v>0.261812313560213</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>0.312566501600423</v>
       </c>
       <c r="G29" t="n">
-        <v>0.406161702706953</v>
+        <v>0.850483432187747</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>0.636330056777713</v>
       </c>
       <c r="I29" t="n">
-        <v>0.455092770295276</v>
+        <v>0.656936817641664</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0427849059224247</v>
+        <v>0.424104037883117</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>0.288532885721321</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>0.097688627830783</v>
       </c>
       <c r="M29" t="n">
-        <v>0.402096768368373</v>
+        <v>0.976056357220496</v>
       </c>
     </row>
     <row r="30">
@@ -1708,31 +1696,31 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.291967006398709</v>
+        <v>0.946521159085572</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>0.55759631535728</v>
       </c>
       <c r="G30" t="n">
-        <v>0.514306376618109</v>
+        <v>0.976130029552082</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>0.880786854787315</v>
       </c>
       <c r="I30" t="n">
-        <v>0.547888826390883</v>
+        <v>0.705747383813645</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.457851311118846</v>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>0.247142453806565</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.442187190932725</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1746,34 +1734,34 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>0.656834150243889</v>
       </c>
       <c r="E31" t="n">
-        <v>0.249889819654876</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.692407155997171</v>
       </c>
       <c r="G31" t="n">
-        <v>0.429054919074775</v>
+        <v>0.582645577427624</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.68985796004385</v>
       </c>
       <c r="I31" t="n">
-        <v>0.43436860837017</v>
+        <v>0.637669222714409</v>
       </c>
       <c r="J31" t="n">
-        <v>0.040836553023495</v>
+        <v>0.751752179264762</v>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>0.543911233017099</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>0.485251928771937</v>
       </c>
       <c r="M31" t="n">
-        <v>0.38378595553823</v>
+        <v>0.56880535875269</v>
       </c>
     </row>
     <row r="32">
@@ -1787,34 +1775,34 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0.454533351229388</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.347197753767597</v>
+        <v>0.479150094302716</v>
       </c>
       <c r="G32" t="n">
-        <v>0.220023096104905</v>
+        <v>0.898269059550788</v>
       </c>
       <c r="H32" t="n">
-        <v>0.521214429014805</v>
+        <v>0.477386034716026</v>
       </c>
       <c r="I32" t="n">
-        <v>0.315345888821307</v>
+        <v>0.441271101188326</v>
       </c>
       <c r="J32" t="n">
-        <v>0.38449447631652</v>
+        <v>0.639714143854452</v>
       </c>
       <c r="K32" t="n">
-        <v>0.174493447041399</v>
+        <v>0.500617637175634</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>0.335797377912423</v>
       </c>
       <c r="M32" t="n">
-        <v>0.595125397349134</v>
+        <v>0.622447475588089</v>
       </c>
     </row>
     <row r="33">
@@ -1825,37 +1813,37 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.262264261549895</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.28169413117619</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>0.583739004380036</v>
       </c>
       <c r="F33" t="n">
-        <v>0.312566501600423</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.850483432187747</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0.636330056777713</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.656936817641664</v>
+        <v>0.75729880539093</v>
       </c>
       <c r="J33" t="n">
-        <v>0.424104037883117</v>
+        <v>0.60493050115829</v>
       </c>
       <c r="K33" t="n">
-        <v>0.288532885721321</v>
+        <v>0.597410784966142</v>
       </c>
       <c r="L33" t="n">
-        <v>0.097688627830783</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.976056357220496</v>
+        <v>0.240386458601384</v>
       </c>
     </row>
     <row r="34">
@@ -1869,34 +1857,34 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>0.526777030376071</v>
       </c>
       <c r="E34" t="n">
-        <v>0.946521159085572</v>
+        <v>0.695415168939441</v>
       </c>
       <c r="F34" t="n">
-        <v>0.55759631535728</v>
+        <v>0.539743631763296</v>
       </c>
       <c r="G34" t="n">
-        <v>0.976130029552082</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.880786854787315</v>
+        <v>0.503988010427287</v>
       </c>
       <c r="I34" t="n">
-        <v>0.705747383813645</v>
+        <v>0.567614296037512</v>
       </c>
       <c r="J34" t="n">
-        <v>0.457851311118846</v>
+        <v>0.507566324709714</v>
       </c>
       <c r="K34" t="n">
-        <v>0.247142453806565</v>
+        <v>0.767104383929128</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>0.448357922253106</v>
       </c>
     </row>
     <row r="35">
@@ -1910,34 +1898,34 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.656834150243889</v>
+        <v>0.526777030376071</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>0.695415168939441</v>
       </c>
       <c r="F35" t="n">
-        <v>0.692407155997171</v>
+        <v>0.539743631763296</v>
       </c>
       <c r="G35" t="n">
-        <v>0.582645577427624</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.68985796004385</v>
+        <v>0.503988010427287</v>
       </c>
       <c r="I35" t="n">
-        <v>0.637669222714409</v>
+        <v>0.567614296037512</v>
       </c>
       <c r="J35" t="n">
-        <v>0.751752179264762</v>
+        <v>0.507566324709714</v>
       </c>
       <c r="K35" t="n">
-        <v>0.543911233017099</v>
+        <v>0.767104383929128</v>
       </c>
       <c r="L35" t="n">
-        <v>0.485251928771937</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.56880535875269</v>
+        <v>0.448357922253106</v>
       </c>
     </row>
     <row r="36">
@@ -1951,34 +1939,34 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0.454533351229388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0.944700764054921</v>
       </c>
       <c r="F36" t="n">
-        <v>0.479150094302716</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.898269059550788</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.477386034716026</v>
+        <v>0.861366080206932</v>
       </c>
       <c r="I36" t="n">
-        <v>0.441271101188326</v>
+        <v>0.772333966068395</v>
       </c>
       <c r="J36" t="n">
-        <v>0.639714143854452</v>
+        <v>0.426348537327791</v>
       </c>
       <c r="K36" t="n">
-        <v>0.500617637175634</v>
+        <v>0.426741010954872</v>
       </c>
       <c r="L36" t="n">
-        <v>0.335797377912423</v>
+        <v>0.36325519209032</v>
       </c>
       <c r="M36" t="n">
-        <v>0.622447475588089</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1992,34 +1980,34 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>0.672679781770199</v>
       </c>
       <c r="E37" t="n">
-        <v>0.583739004380036</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>0.772533976583873</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0.97428028985664</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>0.771999399888179</v>
       </c>
       <c r="I37" t="n">
-        <v>0.75729880539093</v>
+        <v>0.961005317762393</v>
       </c>
       <c r="J37" t="n">
-        <v>0.60493050115829</v>
+        <v>0.740887059399316</v>
       </c>
       <c r="K37" t="n">
-        <v>0.597410784966142</v>
+        <v>0.286783054942825</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.240386458601384</v>
+        <v>0.498353458806282</v>
       </c>
     </row>
     <row r="38">
@@ -2033,197 +2021,33 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.526777030376071</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.695415168939441</v>
+        <v>0.834629653025204</v>
       </c>
       <c r="F38" t="n">
-        <v>0.539743631763296</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>0.503988010427287</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.567614296037512</v>
+        <v>0.774924646049178</v>
       </c>
       <c r="J38" t="n">
-        <v>0.507566324709714</v>
+        <v>0.501635545266398</v>
       </c>
       <c r="K38" t="n">
-        <v>0.767104383929128</v>
+        <v>0.521002793717906</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0.448357922253106</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.526777030376071</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.695415168939441</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.539743631763296</v>
-      </c>
-      <c r="G39" t="n">
-        <v>1</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.503988010427287</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.567614296037512</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.507566324709714</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.767104383929128</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.448357922253106</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.944700764054921</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0.861366080206932</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.772333966068395</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.426348537327791</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.426741010954872</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0.36325519209032</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" t="n">
-        <v>0</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.672679781770199</v>
-      </c>
-      <c r="E41" t="n">
-        <v>1</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.772533976583873</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.97428028985664</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.771999399888179</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.961005317762393</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.740887059399316</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.286783054942825</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.498353458806282</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42" t="n">
-        <v>0</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.834629653025204</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>1</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0.774924646049178</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.501635545266398</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.521002793717906</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
         <v>0.678471563890504</v>
       </c>
     </row>
